--- a/biology/Zoologie/Encyocrypta_montmou/Encyocrypta_montmou.xlsx
+++ b/biology/Zoologie/Encyocrypta_montmou/Encyocrypta_montmou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta montmou est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta montmou est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur le mont Mou[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur le mont Mou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 15 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 15 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Mou.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
